--- a/public/excel_template/anak_template.xlsx
+++ b/public/excel_template/anak_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D5DFB-989D-4E37-A3DE-D31F72D7BAEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8584D170-8D36-43FE-940A-95D8839AF75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E5A56C28-DAE1-4625-BCEB-532442E9051B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{30C3352F-7E2C-4BA0-B4CB-3604A0F51A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -33,43 +33,46 @@
     <t>password</t>
   </si>
   <si>
+    <t>nama_apps</t>
+  </si>
+  <si>
     <t>nama_divisi</t>
   </si>
   <si>
     <t>username_leader</t>
   </si>
   <si>
-    <t>nama_apps</t>
-  </si>
-  <si>
-    <t>anak1</t>
-  </si>
-  <si>
-    <t>pass1</t>
+    <t>tanggal_buka</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
+    <t>username2</t>
   </si>
   <si>
     <t>apps1</t>
   </si>
   <si>
+    <t>apps2</t>
+  </si>
+  <si>
     <t>divisi1</t>
   </si>
   <si>
-    <t>leader1</t>
-  </si>
-  <si>
-    <t>anak2</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>apps2</t>
-  </si>
-  <si>
     <t>divisi2</t>
   </si>
   <si>
-    <t>leader2</t>
+    <t>newleader1</t>
+  </si>
+  <si>
+    <t>newleader2</t>
   </si>
 </sst>
 </file>
@@ -85,18 +88,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF252422"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252422"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,9 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,68 +441,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41DB205-E51E-47B4-9E14-D57D5FA74442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445C1B64-5A0C-4BCB-9EFD-C991D4304C65}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44318</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
